--- a/data/income_statement/2digits/size/82_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/82_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>82-Office administrative, office support and other business support activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>82-Office administrative, office support and other business support activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,647 +841,732 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>989965.0600500001</v>
+        <v>1008257.00973</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1257388.48692</v>
+        <v>1267518.91537</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1517092.44436</v>
+        <v>1549372.41126</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1617787.0647</v>
+        <v>1632626.95202</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2056609.85129</v>
+        <v>2119094.77176</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2459817.72926</v>
+        <v>2492711.44121</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2726631.19141</v>
+        <v>2786249.40994</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3203618.04485</v>
+        <v>3284555.88651</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3872907.11151</v>
+        <v>4020069.17619</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>5427490.37928</v>
+        <v>5532047.59959</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6675913.94491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7012419.887560001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5727321.269</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>872692.19805</v>
+        <v>893009.3151499999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1113066.48811</v>
+        <v>1118764.53029</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1348965.29212</v>
+        <v>1379378.41214</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1476143.52573</v>
+        <v>1486567.09473</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1877359.28387</v>
+        <v>1936926.56072</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2245568.79534</v>
+        <v>2268212.43016</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2491432.48492</v>
+        <v>2544576.71225</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2912871.05195</v>
+        <v>2971562.9252</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3464049.95295</v>
+        <v>3581039.32504</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4678718.325069999</v>
+        <v>4747617.04907</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5840960.29981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6174224.616909999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4822315.055</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>85484.78006</v>
+        <v>84463.80536000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>108389.07145</v>
+        <v>113295.306</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>126583.70171</v>
+        <v>128013.65635</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>107302.68933</v>
+        <v>111403.74426</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>137852.45235</v>
+        <v>140661.64545</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>173501.97637</v>
+        <v>186130.35763</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>191568.3072</v>
+        <v>199020.60944</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>217327.22186</v>
+        <v>238444.06019</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>323500.59107</v>
+        <v>353506.60649</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>607388.4010800001</v>
+        <v>630579.59357</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>710304.6832000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>713511.4129300001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>756839.699</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>31788.08194</v>
+        <v>30783.88922</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>35932.92736</v>
+        <v>35459.07908</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>41543.45053</v>
+        <v>41980.34277</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>34340.84964</v>
+        <v>34656.11303</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>41398.11506999999</v>
+        <v>41506.56559</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>40746.95755</v>
+        <v>38368.65342</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>43630.39928999999</v>
+        <v>42652.08825000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>73419.77104000001</v>
+        <v>74548.90112000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>85356.56749</v>
+        <v>85523.24466</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>141383.65313</v>
+        <v>153850.95695</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>124648.9619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>124683.85772</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>148166.515</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>10174.84846</v>
+        <v>10130.9455</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>7906.66947</v>
+        <v>7848.28541</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>10066.47635</v>
+        <v>9599.808260000002</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>15707.91324</v>
+        <v>15672.74743</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>20415.73427</v>
+        <v>20836.29236</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>24242.57127</v>
+        <v>25387.7638</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>15986.49061</v>
+        <v>15744.4671</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>29417.40856</v>
+        <v>36095.98729</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>26530.01782</v>
+        <v>25492.15187</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>58730.04623</v>
+        <v>57955.11643000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>78272.61295000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>75459.27753000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>108272.992</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>7157.17101</v>
+        <v>6127.4674</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>6288.22269</v>
+        <v>6213.73898</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>8329.433080000001</v>
+        <v>7785.83039</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>12723.41481</v>
+        <v>12701.99853</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>17845.67387</v>
+        <v>18133.16757</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>21158.70401</v>
+        <v>22176.18914</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>13340.44174</v>
+        <v>12945.33404</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>26555.30644</v>
+        <v>33241.91309</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>22257.1767</v>
+        <v>21222.56175</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>53432.8108</v>
+        <v>52554.065</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>70217.08373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>66806.59343000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>96152.382</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2817.95382</v>
+        <v>3811.65778</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1439.51964</v>
+        <v>1432.52031</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1383.69044</v>
+        <v>1361.21315</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2169.9066</v>
+        <v>2150.05825</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1636.23949</v>
+        <v>1661.92347</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2397.24747</v>
+        <v>2420.9292</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1319.80465</v>
+        <v>1315.56554</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2093.21266</v>
+        <v>2022.92841</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2639.74769</v>
+        <v>2593.73908</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2726.65623</v>
+        <v>2751.60072</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5477.420480000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5373.720359999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>6454.463</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>199.72363</v>
+        <v>191.82032</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>178.92714</v>
+        <v>202.02612</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>353.35283</v>
+        <v>452.76472</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>814.5918300000001</v>
+        <v>820.69065</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>933.8209099999999</v>
+        <v>1041.20132</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>686.6197900000001</v>
+        <v>790.64546</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1326.24422</v>
+        <v>1483.56752</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>768.88946</v>
+        <v>831.14579</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1633.09343</v>
+        <v>1675.85104</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2570.5792</v>
+        <v>2649.45071</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2578.10874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3278.96374</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>5666.147</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>979790.2115900001</v>
+        <v>998126.06423</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1249481.81745</v>
+        <v>1259670.62996</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1507025.96801</v>
+        <v>1539772.603</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1602079.15146</v>
+        <v>1616954.20459</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2036194.11702</v>
+        <v>2098258.4794</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2435575.15799</v>
+        <v>2467323.67741</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2710644.7008</v>
+        <v>2770504.94284</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3174200.63629</v>
+        <v>3248459.89922</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3846377.09369</v>
+        <v>3994577.02432</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5368760.33305</v>
+        <v>5474092.48316</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6597641.331959999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6936960.610030001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5619048.277</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>755873.36774</v>
+        <v>770554.6829</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>978837.69223</v>
+        <v>982183.6119499999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1136562.54765</v>
+        <v>1158626.97296</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1246478.8621</v>
+        <v>1252399.29476</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1563419.5093</v>
+        <v>1614356.35034</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1898345.85627</v>
+        <v>1915291.82447</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2129008.37948</v>
+        <v>2164555.81229</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2509315.91038</v>
+        <v>2576138.347899999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3099591.25176</v>
+        <v>3210155.41163</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4356258.55574</v>
+        <v>4429836.3157</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5444250.64237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5694879.204229999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4613618.075</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>45282.37416</v>
+        <v>48885.18875</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>41696.44501</v>
+        <v>41659.64342</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>68349.91156000001</v>
+        <v>69160.22472999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>75625.52003</v>
+        <v>73506.67425</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>88473.68162999999</v>
+        <v>93702.18165000001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>119725.40493</v>
+        <v>116466.43365</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>90911.18681</v>
+        <v>88139.66898</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>132356.54199</v>
+        <v>145890.157</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>164692.91408</v>
+        <v>170666.74745</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>356502.2585</v>
+        <v>346771.05108</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>280385.83352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>268278.84148</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>386656.552</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>145700.08386</v>
+        <v>141197.64138</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>198096.59229</v>
+        <v>196577.85508</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>232977.18131</v>
+        <v>227875.72536</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>257896.42682</v>
+        <v>258639.19227</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>275646.57182</v>
+        <v>277435.1901299999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>308071.72918</v>
+        <v>307344.26055</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>461242.99838</v>
+        <v>455172.95264</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>591361.8636</v>
+        <v>615650.00126</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>709648.47525</v>
+        <v>720923.82436</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>596792.6937300001</v>
+        <v>589341.20578</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1153199.09089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1247849.08136</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1617775.601</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>563454.18941</v>
+        <v>579051.4975699999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>737807.91454</v>
+        <v>742824.1745900002</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>822084.4610599999</v>
+        <v>848432.9772500001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>911416.8218799998</v>
+        <v>918754.0581300001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1195280.18431</v>
+        <v>1239273.78428</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1467621.85321</v>
+        <v>1487876.29765</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1573247.32465</v>
+        <v>1617005.75612</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1780744.63999</v>
+        <v>1810762.9761</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2214436.75167</v>
+        <v>2309537.50277</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3382423.23208</v>
+        <v>3458566.21674</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3992002.4993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4158683.4989</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2464874.487</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1436.72031</v>
+        <v>1420.3552</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1236.74039</v>
+        <v>1121.93886</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>13150.99372</v>
+        <v>13158.04562</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1540.09337</v>
+        <v>1499.37011</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>4019.07154</v>
+        <v>3945.19428</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2926.86895</v>
+        <v>3604.83262</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>3606.86964</v>
+        <v>4237.43455</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4852.864800000001</v>
+        <v>3835.21354</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>10813.11076</v>
+        <v>9027.337049999998</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>20540.37143</v>
+        <v>35157.8421</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>18663.21866</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20067.78249</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>144311.435</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>223916.84385</v>
+        <v>227571.38133</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>270644.12522</v>
+        <v>277487.01801</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>370463.42036</v>
+        <v>381145.63004</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>355600.28936</v>
+        <v>364554.90983</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>472774.60772</v>
+        <v>483902.1290600001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>537229.30172</v>
+        <v>552031.85294</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>581636.32132</v>
+        <v>605949.13055</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>664884.7259099999</v>
+        <v>672321.5513200001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>746785.8419300001</v>
+        <v>784421.61269</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1012501.77731</v>
+        <v>1044256.16746</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1153390.68959</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1242081.4058</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1005430.202</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>188797.95267</v>
+        <v>192221.13508</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>224636.56822</v>
+        <v>222733.41712</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>296836.73507</v>
+        <v>300997.80025</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>289967.77865</v>
+        <v>292322.08213</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>364973.92853</v>
+        <v>376660.5285699999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>417899.59049</v>
+        <v>416796.09397</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>459346.85041</v>
+        <v>455729.3169</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>546290.6697999999</v>
+        <v>543423.6604000001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>591354.78775</v>
+        <v>600212.0770899999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>785092.11014</v>
+        <v>782296.0086400001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>835311.50073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>856699.3699399999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>887711.395</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>457.97767</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>834.3683500000001</v>
+        <v>3382.98919</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>729.41454</v>
+        <v>720.5505400000001</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>399.8201800000001</v>
@@ -1589,10 +1575,10 @@
         <v>4330.13252</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1209.91102</v>
+        <v>846.86802</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>486.9923</v>
+        <v>469.81217</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>1485.58416</v>
@@ -1606,440 +1592,500 @@
       <c r="M21" s="48" t="n">
         <v>671.6705400000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>5343.184</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>31309.5441</v>
+        <v>32793.64077999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>41760.9607</v>
+        <v>41118.87716999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>66208.67204999999</v>
+        <v>65677.29798</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>59860.04333</v>
+        <v>62559.6576</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>76397.15122</v>
+        <v>80829.24653</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>78018.89298999999</v>
+        <v>77955.47627</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>90725.97347</v>
+        <v>89276.47785000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>102102.63205</v>
+        <v>103958.84293</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>121922.88039</v>
+        <v>124681.99432</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>155809.04544</v>
+        <v>151646.8917</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>158690.39662</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>159852.79417</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>177728.873</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>157030.4309</v>
+        <v>158969.51663</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>182041.23917</v>
+        <v>178231.55076</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>229898.64848</v>
+        <v>234599.95173</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>229707.91514</v>
+        <v>229362.60435</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>284246.64479</v>
+        <v>291501.14952</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>338670.78648</v>
+        <v>337993.74968</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>368133.88464</v>
+        <v>365983.02688</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>442702.45359</v>
+        <v>437979.23331</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>469249.3315600001</v>
+        <v>475347.50697</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>628432.9780300001</v>
+        <v>629799.03027</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>675949.4335699999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>696174.9052299999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>704639.338</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>35118.89118</v>
+        <v>35350.24625</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>46007.557</v>
+        <v>54753.60089</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>73626.68528999999</v>
+        <v>80147.82978999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>65632.51071</v>
+        <v>72232.82770000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>107800.67919</v>
+        <v>107241.60049</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>119329.71123</v>
+        <v>135235.75897</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>122289.47091</v>
+        <v>150219.81365</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>118594.05611</v>
+        <v>128897.89092</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>155431.05418</v>
+        <v>184209.5356</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>227409.66717</v>
+        <v>261960.15882</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>318079.18886</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>385382.03586</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>117718.807</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>25608.41435</v>
+        <v>46572.84884999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>26430.97939</v>
+        <v>37158.12807</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>28166.53876</v>
+        <v>43602.00551</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>38314.97517000001</v>
+        <v>46916.64747</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>52880.69852000001</v>
+        <v>75501.52293000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>41259.25853</v>
+        <v>48347.17131000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>56562.27709</v>
+        <v>63126.81709</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>70658.62202</v>
+        <v>71401.88036999998</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>78185.34596999999</v>
+        <v>81683.03444999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>450791.67228</v>
+        <v>430305.95959</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>364403.8248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>368564.33932</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>524846.102</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1220.53733</v>
+        <v>338.7212699999999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1120.27047</v>
+        <v>154.64844</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>800.6271400000001</v>
+        <v>461.17047</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2592.63307</v>
+        <v>514.62562</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0.44361</v>
+        <v>1267.7098</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1.04312</v>
+        <v>179.00824</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>2.33615</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>5167.19861</v>
+        <v>1494.1127</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>975.56899</v>
+        <v>1207.30777</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>3606.00875</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>2262.05363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>904.9910699999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1366.912</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1004.50519</v>
+        <v>14796.02321</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>271.81366</v>
+        <v>9473.66079</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>294.36</v>
+        <v>8795.42568</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>302.05283</v>
+        <v>10019.57076</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>13.75149</v>
+        <v>7937.85694</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>207.35427</v>
+        <v>4386.64725</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>107.2425</v>
+        <v>2.32338</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>6304.50205</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1139.66673</v>
+        <v>3734.79592</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>7560.375</v>
+        <v>1800</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>7793.50577</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>3031.53401</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>14195.334</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2716.62974</v>
+        <v>4366.24129</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3479.53987</v>
+        <v>4521.85685</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3303.51719</v>
+        <v>5678.61375</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5417.346530000001</v>
+        <v>7084.349819999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>5513.984010000001</v>
+        <v>7791.06405</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>8007.4773</v>
+        <v>8384.025230000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>7284.622850000001</v>
+        <v>9572.04448</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>8521.58417</v>
+        <v>10790.5985</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>13145.6528</v>
+        <v>17389.25933</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>37973.31268</v>
+        <v>35089.61677</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>42592.62656</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>53616.88471000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>44668.304</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2175.9926</v>
+        <v>2181.91545</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1357.21752</v>
+        <v>1094.76305</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>2863.58184</v>
+        <v>2535.68687</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1552.8503</v>
+        <v>1623.97921</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3131.99098</v>
+        <v>3896.15892</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3011.45214</v>
+        <v>3070.12753</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>613.0695499999999</v>
+        <v>650.7382600000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>432.97486</v>
+        <v>408.93965</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>892.6807299999999</v>
+        <v>461.80682</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2075.94628</v>
+        <v>2076.09042</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>4706.950100000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>4838.370559999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1811.797</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>854.29723</v>
+        <v>848.8692199999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>949.7469599999999</v>
+        <v>923.1424000000001</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>460.12781</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>188.02384</v>
+        <v>257.5543</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>390.42998</v>
+        <v>1107.57905</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>956.4641</v>
+        <v>1013.32605</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1080.60018</v>
+        <v>1614.23354</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1151.41765</v>
+        <v>1662.45626</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>732.61223</v>
+        <v>869.0664</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>3200.4329</v>
+        <v>2755.718769999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3618.957149999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>4648.84909</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3460.799</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>286.1583199999999</v>
+        <v>239.352</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>217.20862</v>
+        <v>145.13192</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>543.15711</v>
+        <v>514.73599</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2322.01373</v>
+        <v>915.69071</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>507.19669</v>
+        <v>1030.48912</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2716.28717</v>
+        <v>2507.44072</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>738.28665</v>
+        <v>1249.00325</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1318.4663</v>
+        <v>1572.91657</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1741.21737</v>
+        <v>2053.26704</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>6731.731650000001</v>
+        <v>6278.06012</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>5591.05318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>8700.060029999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>28095.902</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>11594.30191</v>
+        <v>17814.819</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>12545.27844</v>
+        <v>14950.65174</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>16196.36315</v>
+        <v>22235.78038</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>19982.20118</v>
+        <v>20707.95482</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>34935.8253</v>
+        <v>44801.41992</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>17823.33856</v>
+        <v>20380.18789</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>32135.75437</v>
+        <v>36416.04633</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>31873.69205</v>
+        <v>32307.09605</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>34807.7724</v>
+        <v>39314.67083</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>229407.8144</v>
+        <v>219979.95027</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>110326.89616</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>107014.04558</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>273716.785</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>11.8479</v>
@@ -2051,10 +2097,10 @@
         <v>0.63889</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>332.80307</v>
+        <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>332.80307</v>
+        <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>0</v>
@@ -2063,7 +2109,7 @@
         <v>364.43891</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>884.06475</v>
+        <v>884.15975</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>1.77104</v>
@@ -2074,29 +2120,34 @@
       <c r="M33" s="48" t="n">
         <v>1827.49265</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>733.516</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>3.30297</v>
+        <v>4.39501</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>0.00067</v>
+        <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>0</v>
+        <v>63.86023</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>0</v>
+        <v>8.23419</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0.27842</v>
+        <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>0</v>
@@ -2113,245 +2164,280 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>31.575</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>5740.84116</v>
+        <v>5970.664499999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>6403.89616</v>
+        <v>5808.26586</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3704.16563</v>
+        <v>2855.96544</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5625.050619999999</v>
+        <v>5784.68804</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>8054.273389999999</v>
+        <v>7669.245129999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>8535.56345</v>
+        <v>8426.4084</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>14235.92593</v>
+        <v>13255.65279</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>21309.22363</v>
+        <v>15977.09884</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>24748.40368</v>
+        <v>16651.0893</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>158323.35035</v>
+        <v>156807.81422</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>185684.2896</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>183982.11162</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>156765.178</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>19944.68436</v>
+        <v>25333.11113</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>21468.63471</v>
+        <v>24658.51216</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>25978.66976</v>
+        <v>30582.88144</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>30874.38488</v>
+        <v>32981.5686</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>36943.11394</v>
+        <v>46853.1365</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>28639.64594999999</v>
+        <v>33978.42524</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>82700.28436000001</v>
+        <v>38943.07211000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>36569.0281</v>
+        <v>39213.79182999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>39081.31186</v>
+        <v>48246.92217000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>375510.84724</v>
+        <v>375974.8975500001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>296932.64265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>291289.10355</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>375937.989</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1697.15194</v>
+        <v>1713.20217</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>3857.50122</v>
+        <v>3855.52832</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>4720.956819999999</v>
+        <v>4821.3729</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>6806.46176</v>
+        <v>5737.91824</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5400.32421</v>
+        <v>5492.94309</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4581.058779999999</v>
+        <v>4984.85669</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3592.47121</v>
+        <v>3795.30229</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>4508.582240000001</v>
+        <v>4569.548019999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>5294.451210000001</v>
+        <v>5911.119769999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>6302.72479</v>
+        <v>7176.64497</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7859.999530000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>9083.22687</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3388.724</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3774.04166</v>
+        <v>3539.50935</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2252.53318</v>
+        <v>2274.26362</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1961.39471</v>
+        <v>2861.718640000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1912.44504</v>
+        <v>2068.16079</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3039.80864</v>
+        <v>4479.99393</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3535.4304</v>
+        <v>4111.94208</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>51445.78307</v>
+        <v>2818.96609</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3242.29496</v>
+        <v>3438.61837</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3593.28684</v>
+        <v>7194.75286</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>19147.27758</v>
+        <v>19324.61393</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>10718.8027</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>11043.30505</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>22787</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>41.02913</v>
+        <v>40.91001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>363.16114</v>
+        <v>364.74114</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1889.08942</v>
+        <v>1902.53078</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>126.92073</v>
+        <v>1503.47156</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>35.44</v>
+        <v>105.9739</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>110.55107</v>
+        <v>156.40723</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>29.97958</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>428.95581</v>
+        <v>267.52164</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>500.76965</v>
+        <v>3.68893</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>128.79754</v>
+        <v>33.08328</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>4023.31333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>4018.48284</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2169.503</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>11319.73296</v>
+        <v>17334.73682</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>12519.92099</v>
+        <v>15724.86859</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>16241.04189</v>
+        <v>19606.91045</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>19922.68812</v>
+        <v>21557.55305000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>27053.81809</v>
+        <v>35172.06947</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>18728.14532</v>
+        <v>23157.02866</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>25506.41476</v>
+        <v>30041.96959</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>19556.49857</v>
+        <v>25101.17495</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>24036.46791</v>
+        <v>32440.74829</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>212644.18188</v>
+        <v>212504.17916</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>104138.59186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>98233.63194000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>225193.639</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>3.57094</v>
@@ -2372,7 +2458,7 @@
         <v>13.39251</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>499.74105</v>
+        <v>531.51824</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>1272.7431</v>
@@ -2381,16 +2467,21 @@
         <v>6.83689</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1773.21023</v>
+        <v>1700.66396</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>1205.55821</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>217.252</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2408,7 +2499,7 @@
         <v>22.7194</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>25.0034</v>
+        <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0.00247</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3109.15773</v>
+        <v>2701.18184</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2469.86687</v>
+        <v>2433.45918</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1166.15287</v>
+        <v>1390.31462</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2105.377</v>
+        <v>2113.97273</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1391.0036</v>
+        <v>1579.43671</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1646.06447</v>
+        <v>1554.79807</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1625.89469</v>
+        <v>1725.33632</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>7559.95342</v>
+        <v>4564.185749999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>5649.49936</v>
+        <v>2689.77543</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>135514.65522</v>
+        <v>135235.71225</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>168986.37455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>167704.89617</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>122181.871</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>9398.46364</v>
+        <v>10560.26243</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>8770.52333</v>
+        <v>9062.503580000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>10806.43634</v>
+        <v>12238.24475</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>13800.54905</v>
+        <v>14359.12916</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>20002.29222</v>
+        <v>22878.0887</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>25188.00763</v>
+        <v>27821.92827</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>26483.68261</v>
+        <v>29247.25692</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>33894.2164</v>
+        <v>36807.99427999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>40247.50776</v>
+        <v>43010.92657</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>78606.06684999999</v>
+        <v>76909.29699999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>80818.26647</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>79136.68718000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>154170.85</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>9124.096190000002</v>
+        <v>10285.89498</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>8475.497940000001</v>
+        <v>8767.47819</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>10474.4591</v>
+        <v>11870.05212</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>13338.1838</v>
+        <v>13892.50829</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>19057.9643</v>
+        <v>22351.74817</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>24683.29267</v>
+        <v>27292.14756</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>25400.48391</v>
+        <v>27888.78127</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>33059.44386</v>
+        <v>35850.16574</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>39506.59039</v>
+        <v>42324.88862000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>77605.45629</v>
+        <v>75237.14259999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>76907.85097</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>75395.83897999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>150361.073</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>274.36745</v>
@@ -2555,463 +2666,521 @@
         <v>295.02539</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>331.97724</v>
+        <v>368.19263</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>462.36525</v>
+        <v>466.6208699999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>944.3279199999999</v>
+        <v>526.3405300000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>504.71496</v>
+        <v>529.78071</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1083.1987</v>
+        <v>1358.47565</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>834.77254</v>
+        <v>957.8285400000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>740.91737</v>
+        <v>686.0379499999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1000.61056</v>
+        <v>1672.1544</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3910.4155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3740.8482</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3809.777</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>31384.15753</v>
+        <v>46029.72154</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>42199.37835</v>
+        <v>58190.71321999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>65008.11795</v>
+        <v>80928.70911</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>59272.55195</v>
+        <v>71808.77740999998</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>103735.97155</v>
+        <v>113011.89822</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>106761.31618</v>
+        <v>121782.57677</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>69667.78103</v>
+        <v>145156.30171</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>118789.43363</v>
+        <v>124277.98518</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>154287.58053</v>
+        <v>174634.72131</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>224084.42536</v>
+        <v>239381.92386</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>304732.10454</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>383520.58445</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>112456.07</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5886.072450000001</v>
+        <v>19760.39852</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>11261.71719</v>
+        <v>12454.56243</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>6239.889039999999</v>
+        <v>42079.70087</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>8976.83805</v>
+        <v>12867.07558</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>14712.75359</v>
+        <v>14941.42902</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>14772.90927</v>
+        <v>24122.26541</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>14935.88958</v>
+        <v>18886.94534</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>20421.87026</v>
+        <v>21876.66288</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>25612.14852</v>
+        <v>21394.21632</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>66314.76794000001</v>
+        <v>47528.61546</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>37623.99135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>46195.54298000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>92110.202</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>50.18833</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2.77049</v>
+        <v>2.89067</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>49.55569000000001</v>
+        <v>938.9018900000001</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>287.96082</v>
+        <v>272.32916</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>487.06806</v>
+        <v>613.1616000000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>489.53266</v>
+        <v>430.00307</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>88.03233999999999</v>
+        <v>146.45761</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>467.67807</v>
+        <v>609.47572</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3337.03926</v>
+        <v>632.0004099999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>9058.23314</v>
+        <v>9047.209339999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>818.77388</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>897.83287</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>784.753</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>5835.88412</v>
+        <v>19710.21019</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>11258.9467</v>
+        <v>12451.67176</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6190.33335</v>
+        <v>41140.79898</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>8688.87723</v>
+        <v>12594.74642</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>14225.68553</v>
+        <v>14328.26742</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>14283.37661</v>
+        <v>23692.26234</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>14847.85724</v>
+        <v>18740.48773</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>19954.19219</v>
+        <v>21267.18716</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>22275.10926</v>
+        <v>20762.21591</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>57256.53479999999</v>
+        <v>38481.40612</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>36805.21747</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>45297.71011000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>91325.44899999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>8769.51518</v>
+        <v>15042.95749</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>12867.61113</v>
+        <v>9189.608489999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>78758.21136</v>
+        <v>88517.65075</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>12759.39332</v>
+        <v>14775.8195</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>18954.47632</v>
+        <v>18797.92819</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>52920.10183</v>
+        <v>49222.04774</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>20050.61901</v>
+        <v>17387.16877</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>70336.21433</v>
+        <v>69400.64588999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>121603.96327</v>
+        <v>118938.67367</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>97541.23328999999</v>
+        <v>83693.83246999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>56305.45935</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>47829.53117</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>51103.854</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>6.73</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>92.49956</v>
+        <v>80.15017</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>225.95912</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>481.18529</v>
+        <v>494.54883</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>86.09805</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>336.75336</v>
+        <v>335.32718</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>616.82124</v>
+        <v>165.5952</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>867.44979</v>
+        <v>428.54932</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>40.59305000000001</v>
+        <v>0</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>144.80942</v>
+        <v>14.80942</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>1968.92975</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>1647.013</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1517.0377</v>
+        <v>1528.74117</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>849.8719500000001</v>
+        <v>842.7442600000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>968.0815700000001</v>
+        <v>906.8195999999998</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>664.14457</v>
+        <v>608.34719</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>396.99567</v>
+        <v>1197.26963</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1237.62549</v>
+        <v>796.5022200000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1786.62861</v>
+        <v>1689.69375</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1742.08098</v>
+        <v>2360.07659</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1958.52514</v>
+        <v>802.5938899999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>12847.47595</v>
+        <v>10620.52283</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4529.658820000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1855.68896</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4260.384</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>7245.747479999999</v>
+        <v>13507.48632</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>11925.23962</v>
+        <v>8266.71406</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>77564.17066999999</v>
+        <v>87384.87203</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>11614.06346</v>
+        <v>13672.92348</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>18471.3826</v>
+        <v>17514.56051</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>51345.72298</v>
+        <v>48090.21834000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17647.16916</v>
+        <v>15531.87982</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>67726.68356</v>
+        <v>66612.01997999998</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>119604.84508</v>
+        <v>118136.07978</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>84548.94792000001</v>
+        <v>73058.50022</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>49806.87078</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>44004.91245999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>45196.457</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>28500.7148</v>
+        <v>50747.16257</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>40593.48441</v>
+        <v>61455.66716</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-7510.20437</v>
+        <v>34490.75923</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>55489.99668</v>
+        <v>69900.03349</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>99494.24882000001</v>
+        <v>109155.39905</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>68614.12362</v>
+        <v>96682.79444</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>64553.05159999999</v>
+        <v>146656.07828</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>68875.08956000001</v>
+        <v>76754.00217000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>58295.76578</v>
+        <v>77090.26396000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>192857.96001</v>
+        <v>203216.70685</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>286050.63654</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>381886.59626</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>153462.418</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>11701.11557</v>
+        <v>11789.23109</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>13346.9076</v>
+        <v>13330.05716</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>16601.66596</v>
+        <v>18675.51536</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>17004.87163</v>
+        <v>17474.06791</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>26058.9234</v>
+        <v>27931.55896</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>29183.67621</v>
+        <v>28453.06846</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>30748.99753</v>
+        <v>39384.44917</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>36159.33714</v>
+        <v>35515.76776</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>42026.21088</v>
+        <v>43530.85487</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>66786.78644000001</v>
+        <v>68291.56798000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>82711.57193000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>86371.5802</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>70393.287</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>16799.59923</v>
+        <v>38957.93148000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>27246.57681</v>
+        <v>48125.61</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-24111.87033</v>
+        <v>15815.24387</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>38485.12505</v>
+        <v>52425.96558</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>73435.32542000001</v>
+        <v>81223.84009</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>39430.44740999999</v>
+        <v>68229.72598</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>33804.05407000001</v>
+        <v>107271.62911</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>32715.75242</v>
+        <v>41238.23441</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>16269.55490000001</v>
+        <v>33559.40908999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>126071.17357</v>
+        <v>134925.13887</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>203339.06461</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>295515.01606</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>83069.13099999999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>579</v>
+        <v>511</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>666</v>
+        <v>585</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>722</v>
+        <v>645</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>797</v>
+        <v>695</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>870</v>
+        <v>742</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1010</v>
+        <v>844</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1131</v>
+        <v>929</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1225</v>
+        <v>963</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1414</v>
+        <v>1137</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1022</v>
+        <v>895</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>959</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>